--- a/biology/Virologie/Air_Murder/Air_Murder.xlsx
+++ b/biology/Virologie/Air_Murder/Air_Murder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Air Murder (hangeul : 공기살인 ; RR : Gonggisalin ; litt. « Meurtre aérien ») est un film dramatique sud-coréen écrit et réalisé par Jo Yong-sun, sorti en 2022.
-Il s'agit de l'adaptation du roman sud-coréen Gyun (균) de So Ji-won[1], qui s'inspire de l'affaire du désinfectant toxique pour humidificateurs d'air (ko) ayant lieu en Corée du Sud, en 2011[2].
+Il s'agit de l'adaptation du roman sud-coréen Gyun (균) de So Ji-won, qui s'inspire de l'affaire du désinfectant toxique pour humidificateurs d'air (ko) ayant lieu en Corée du Sud, en 2011.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : 공기살인
 Titre international : Air Murder
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kim Sang-kyung : Jeong Tae-hoon
@@ -627,10 +645,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En août 2020, on apprend que Kim Sang-kyung, Lee Sun-bin, Seo Young-hee et Yoon Kyung-ho ont été choisis dans des rôles principaux pour ce film catastrophe[3],[4], de même que, quelques jours plus tard, Lee Yoo-jun[5] et Lee Ji-hoon[6]. En octobre de la même année, Kim Jung-tae fait partie de la distribution du film[7].
-Le tournage commence le 9 octobre 2020[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En août 2020, on apprend que Kim Sang-kyung, Lee Sun-bin, Seo Young-hee et Yoon Kyung-ho ont été choisis dans des rôles principaux pour ce film catastrophe de même que, quelques jours plus tard, Lee Yoo-jun et Lee Ji-hoon. En octobre de la même année, Kim Jung-tae fait partie de la distribution du film.
+Le tournage commence le 9 octobre 2020.
 </t>
         </is>
       </c>
